--- a/academias/Ciencias Sociales - Estadisticos 2020.xlsx
+++ b/academias/Ciencias Sociales - Estadisticos 2020.xlsx
@@ -434,6 +434,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="50.7109375" customWidth="1"/>
+    <col min="3" max="3" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -625,6 +626,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="50.7109375" customWidth="1"/>
+    <col min="3" max="3" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -804,6 +806,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="50.7109375" customWidth="1"/>
+    <col min="3" max="3" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">

--- a/academias/Ciencias Sociales - Estadisticos 2020.xlsx
+++ b/academias/Ciencias Sociales - Estadisticos 2020.xlsx
@@ -498,13 +498,13 @@
         <v>17.65</v>
       </c>
       <c r="I2">
-        <v>8.300000000000001</v>
+        <v>7.7</v>
       </c>
       <c r="J2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>17.65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -521,25 +521,25 @@
         <v>28</v>
       </c>
       <c r="E3">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F3">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G3">
-        <v>67.86</v>
+        <v>78.56999999999999</v>
       </c>
       <c r="H3">
-        <v>32.14</v>
+        <v>21.43</v>
       </c>
       <c r="I3">
-        <v>8.199999999999999</v>
+        <v>7.5</v>
       </c>
       <c r="J3">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="K3">
-        <v>32.14</v>
+        <v>10.71</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -556,25 +556,25 @@
         <v>34</v>
       </c>
       <c r="E4">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G4">
-        <v>79.41</v>
+        <v>82.34999999999999</v>
       </c>
       <c r="H4">
-        <v>20.59</v>
+        <v>17.65</v>
       </c>
       <c r="I4">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="J4">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K4">
-        <v>20.59</v>
+        <v>8.82</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -678,22 +678,25 @@
         <v>34</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="F2">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>82.34999999999999</v>
       </c>
       <c r="H2">
-        <v>100</v>
+        <v>17.65</v>
+      </c>
+      <c r="I2">
+        <v>7.5</v>
       </c>
       <c r="J2">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="K2">
-        <v>100</v>
+        <v>8.82</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -710,22 +713,25 @@
         <v>28</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="F3">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>78.56999999999999</v>
       </c>
       <c r="H3">
-        <v>100</v>
+        <v>21.43</v>
+      </c>
+      <c r="I3">
+        <v>7.3</v>
       </c>
       <c r="J3">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="K3">
-        <v>100</v>
+        <v>14.29</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -742,22 +748,25 @@
         <v>34</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="F4">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>79.41</v>
       </c>
       <c r="H4">
-        <v>100</v>
+        <v>20.59</v>
+      </c>
+      <c r="I4">
+        <v>8</v>
       </c>
       <c r="J4">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="K4">
-        <v>100</v>
+        <v>14.71</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -774,22 +783,25 @@
         <v>28</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="F5">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H5">
-        <v>100</v>
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>9</v>
       </c>
       <c r="J5">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -870,13 +882,13 @@
         <v>17.65</v>
       </c>
       <c r="I2">
-        <v>8.300000000000001</v>
+        <v>7.6</v>
       </c>
       <c r="J2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>17.65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -893,25 +905,25 @@
         <v>28</v>
       </c>
       <c r="E3">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F3">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G3">
-        <v>67.86</v>
+        <v>78.56999999999999</v>
       </c>
       <c r="H3">
-        <v>32.14</v>
+        <v>21.43</v>
       </c>
       <c r="I3">
-        <v>8.199999999999999</v>
+        <v>7.4</v>
       </c>
       <c r="J3">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="K3">
-        <v>32.14</v>
+        <v>10.71</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -928,25 +940,25 @@
         <v>34</v>
       </c>
       <c r="E4">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G4">
-        <v>79.41</v>
+        <v>82.34999999999999</v>
       </c>
       <c r="H4">
-        <v>20.59</v>
+        <v>17.65</v>
       </c>
       <c r="I4">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="J4">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K4">
-        <v>20.59</v>
+        <v>8.82</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -963,19 +975,19 @@
         <v>28</v>
       </c>
       <c r="E5">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>89.29000000000001</v>
+        <v>100</v>
       </c>
       <c r="H5">
-        <v>10.71</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>8.1</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J5">
         <v>0</v>

--- a/academias/Ciencias Sociales - Estadisticos 2020.xlsx
+++ b/academias/Ciencias Sociales - Estadisticos 2020.xlsx
@@ -591,19 +591,19 @@
         <v>28</v>
       </c>
       <c r="E5">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G5">
-        <v>89.29000000000001</v>
+        <v>92.86</v>
       </c>
       <c r="H5">
-        <v>10.71</v>
+        <v>7.14</v>
       </c>
       <c r="I5">
-        <v>8.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J5">
         <v>0</v>

--- a/academias/Ciencias Sociales - Estadisticos 2020.xlsx
+++ b/academias/Ciencias Sociales - Estadisticos 2020.xlsx
@@ -51,7 +51,7 @@
     <t>Por_Blan</t>
   </si>
   <si>
-    <t>Duran Amezcua Maria Angelica</t>
+    <t>Duran Amezcua María Angélica</t>
   </si>
   <si>
     <t>Morales Vallejo Jorge Luis</t>
